--- a/Extracted Excel/HBWHITE.xlsx
+++ b/Extracted Excel/HBWHITE.xlsx
@@ -513,7 +513,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02-08-2024 03:02:46</t>
+          <t>19-08-2024 22:55:27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02-08-2024 03:02:53</t>
+          <t>19-08-2024 22:55:34</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>02-08-2024 03:03:00</t>
+          <t>19-08-2024 22:55:41</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -648,7 +648,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>02-08-2024 03:03:07</t>
+          <t>19-08-2024 22:55:47</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:05</t>
+          <t>19-08-2024 22:57:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:13</t>
+          <t>19-08-2024 22:57:08</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Annual Compliance Certificate for Individual Contributors (2023)</t>
+          <t>Annual Compliance Certificate for Individual Contributors (2024)</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:20</t>
+          <t>19-08-2024 22:57:15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Annual Compliance Certificate for Managers (2023)</t>
+          <t>Annual Compliance Certificate for Managers (2024)</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:28</t>
+          <t>19-08-2024 22:57:22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:35</t>
+          <t>19-08-2024 22:57:29</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -918,7 +918,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:43</t>
+          <t>19-08-2024 22:57:37</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -963,7 +963,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:50</t>
+          <t>19-08-2024 22:57:44</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>02-08-2024 03:04:57</t>
+          <t>19-08-2024 22:57:51</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:05</t>
+          <t>19-08-2024 22:57:59</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1098,7 +1098,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:13</t>
+          <t>19-08-2024 22:58:06</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:20</t>
+          <t>19-08-2024 22:58:14</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:28</t>
+          <t>19-08-2024 22:58:20</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:35</t>
+          <t>19-08-2024 22:58:27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:42</t>
+          <t>19-08-2024 22:58:34</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:50</t>
+          <t>19-08-2024 22:58:41</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>02-08-2024 03:05:57</t>
+          <t>19-08-2024 22:58:48</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:05</t>
+          <t>19-08-2024 22:58:55</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:12</t>
+          <t>19-08-2024 22:59:01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:20</t>
+          <t>19-08-2024 22:59:08</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1548,7 +1548,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:28</t>
+          <t>19-08-2024 22:59:15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:35</t>
+          <t>19-08-2024 22:59:22</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1638,7 +1638,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:43</t>
+          <t>19-08-2024 22:59:30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:50</t>
+          <t>19-08-2024 22:59:37</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1728,7 +1728,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>02-08-2024 03:06:58</t>
+          <t>19-08-2024 22:59:45</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:05</t>
+          <t>19-08-2024 22:59:51</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:13</t>
+          <t>19-08-2024 22:59:58</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1863,7 +1863,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:21</t>
+          <t>19-08-2024 23:00:05</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1908,7 +1908,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:29</t>
+          <t>19-08-2024 23:00:13</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:36</t>
+          <t>19-08-2024 23:00:20</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:44</t>
+          <t>19-08-2024 23:00:29</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:51</t>
+          <t>19-08-2024 23:00:36</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2088,7 +2088,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>02-08-2024 03:07:59</t>
+          <t>19-08-2024 23:00:44</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:07</t>
+          <t>19-08-2024 23:00:51</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2178,7 +2178,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:15</t>
+          <t>19-08-2024 23:00:58</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:22</t>
+          <t>19-08-2024 23:01:05</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:30</t>
+          <t>19-08-2024 23:01:13</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:38</t>
+          <t>19-08-2024 23:01:20</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>02-08-2024 03:08:46</t>
+          <t>19-08-2024 23:01:27</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>02-08-2024 03:09:35</t>
+          <t>19-08-2024 23:02:30</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2448,7 +2448,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>02-08-2024 03:09:43</t>
+          <t>19-08-2024 23:02:37</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Annual Compliance Certificate for Managers (2023)</t>
+          <t>Annual Compliance Certificate for Managers (2024)</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>02-08-2024 03:09:50</t>
+          <t>19-08-2024 23:02:44</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>02-08-2024 03:09:57</t>
+          <t>19-08-2024 23:02:52</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>02-08-2024 03:10:04</t>
+          <t>19-08-2024 23:03:00</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2628,7 +2628,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>02-08-2024 03:10:12</t>
+          <t>19-08-2024 23:03:08</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>02-08-2024 03:10:19</t>
+          <t>19-08-2024 23:03:16</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">

--- a/Extracted Excel/HBWHITE.xlsx
+++ b/Extracted Excel/HBWHITE.xlsx
@@ -440,7 +440,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -2712,6 +2712,2213 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:33:57</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000020226%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>BRENT GUSTYN</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Blueprint for Learners</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:34:02</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000020226%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>BRENT GUSTYN</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>HR 106 Workplace Harassment for Individual Contributors</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:34:08</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000020226%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>BRENT GUSTYN</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>HR 107 Workplace Harassment: The Law Where You Work</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>4</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:34:14</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000020226%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>BRENT GUSTYN</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>5848</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Safety Trivia --  Personal Protective Equipment (PPE) – Employee Essentials</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>5</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:18</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2022 Kevin Mitnick Security Awareness Training</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:24</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Annual Compliance Certificate for Individual Contributors (2024)</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>7</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:30</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Annual Compliance Certificate for Managers (2024)</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:36</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Annual Compliance for Individual Contributors - Shortened</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>9</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:42</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Blueprint for Learners</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:48</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Electrical Safety for Solar Sites - Awareness</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>11</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:35:54</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Global Anti-Bribery and Corruption</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>12</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:00</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>HR 111 Global Anti-Bribery and Corruption</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>13</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:05</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>HR 112 Human Trafficking</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>14</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:11</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>HSE Renewables Orientation</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>15</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:18</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Interview Dos and Don'ts</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>16</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:23</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Introduction to IEA and Family of Companies</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>17</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:29</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Operations: Vestas Blade Sock Installation Procedure</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>18</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:36</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Operations: Vestas Gear Box Lubrication Procedure</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>19</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:42</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Operstions: Vestas Turning Gear Procedure</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>20</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:48</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Quality: Anchor Bolt Tensioning Wind Turbine Foundation</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>21</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:53</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Quality: Concrete Certification</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>22</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:36:59</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Quality: Expectations Certification</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>23</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:06</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Quality: Operations Management - Solar Certificate</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>24</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:11</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Quality: Project Superintendent Solar Certification</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>25</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:17</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Quality: Project Superintendent Wind Erection Certification</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>26</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:24</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Quality: QAQC Management Certification</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>27</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:30</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Quality: Securing GE Battery Box Lid Procedure</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>28</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:36</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Quality: Wind Base Setting Certification</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>29</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:42</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Quality: Wind Erection - GE Certification</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>30</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:47</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Quality: Wind Erection - Nordex Certification</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:37:53</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Safety Trivia -- Crane Safety</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>32</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:00</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Spotter and Blind Spot Orientation</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>33</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:06</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Torque Wrench Operation_Solar</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>34</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:12</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Torque Wrench Testing</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:18</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Becoming an Ally - Part 2</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>36</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:24</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Effective Discipline - 01-Taking Disciplinary Action</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>37</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:30</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Employee Discipline</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:36</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Management 101 - 01-Introduction to Management</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>39</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:42</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Management 101 - 02-Leading and Communicating as a Manager</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>40</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:48</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Motivating Employees</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>41</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:38:54</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Vector Solutions -- Successful Termination</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:39:00</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000159137%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MICHAEL DEVEREAUX</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>1590</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Workplace Harassment for Individual Contributors</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>43</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:39:52</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2022 Kevin Mitnick Security Awareness Training</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>44</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:39:58</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Annual Compliance Certificate for Managers (2024)</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>45</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:40:04</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Global Anti-Bribery and Corruption</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>46</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:40:10</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>HR 106 Workplace Harassment for Individual Contributors</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>47</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:40:16</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>HR 107 Workplace Harassment: The Law Where You Work</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>48</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:40:22</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>HR 108 Ethics Code of Conduct</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>49</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>26-08-2024 21:40:28</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>https://iea-nosso.sabacloud.com/Saba/Web_spf/NA10P1PRD040/app/team/plans;spf-url=common%2Fteam%2Fteamplans%2Femplo000000000019978%2ForgAdmin%2Fbisut000000000003240%3FmanagerId%3Demplo000000000417360</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>MICHAEL WALTON</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Insider Trading Training</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
